--- a/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2987,4 +2988,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0532</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6438</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5632</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3614,4 +3615,1466 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9608</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6491</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5757</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5451</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3773</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5077,4 +5078,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5086,7 +5087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5097,17 +5098,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5117,14 +5138,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.22</v>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1573</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5133,14 +5176,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.17</v>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5149,14 +5214,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.5</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5165,13 +5252,2849 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6697</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>61.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2943</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2564</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2544</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9318</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6541</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5853</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5817</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5229</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4834</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4611</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4607</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4317</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>34.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7993,7 +7994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8004,17 +8005,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8024,14 +8045,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>46.68</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8040,14 +8083,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.22</v>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -8056,14 +8121,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.17</v>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8072,14 +8159,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.5</v>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8088,13 +8197,1155 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>41</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>34.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9228,7 +9229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9239,17 +9240,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9259,14 +9280,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.56</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -9275,14 +9318,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>46.68</v>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9291,14 +9356,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.22</v>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2213</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9307,14 +9394,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.17</v>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -9323,14 +9432,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.5</v>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8808</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -9339,13 +9470,1323 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6052</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4525</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>34.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>13.29</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>11.56</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>46.68</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>20.22</v>
+        <v>46.68</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>9.17</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>9.5</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>41</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>34.56</v>
       </c>
     </row>
@@ -600,6 +617,2870 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8557</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0894</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0763</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7843</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国高质量混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4768</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4341</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015797</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015796</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2023,7 +4904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3257,7 +6138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6163,7 +9044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7625,7 +10506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8251,7 +11132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9181,7 +12062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603129-春风动力.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>23.67</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>13.29</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>11.56</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>46.68</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>20.22</v>
+        <v>46.68</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>9.17</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>9.5</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1644 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>41</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>34.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>135.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0881</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2598</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0792</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9735</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9718</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9693</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9369</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8709</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8469</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7883</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7263</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4772</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>60.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002823</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002824</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2248,1848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3735</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8686</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8489</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3480,7 +6953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4904,7 +8377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6138,7 +9611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9044,7 +12517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10506,7 +13979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11132,7 +14605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12060,1618 +15533,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001714</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信文体产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>135.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.1766</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519712</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银阿尔法核心混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>83.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6729</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>202023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方优选成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>39.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.6107</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008854</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方内需增长两年持有期股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>72.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.4577</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>75.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.2689</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519697</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银优势行业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>67.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.0881</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009029</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信高质量成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>43.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.8135</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>25.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.4298</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007733</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方智锐混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.2598</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002851</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方品质优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.0792</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>481015</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.9735</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000793</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.9718</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160133</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方天元新产业股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>31.78</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.9693</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004854</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>33.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.9369</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519056</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>海富通内需热点混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.9003</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001195</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银瑞信农业产业股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.44</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.8709</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007353</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新3年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>21.28</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.8469</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>17.43</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>60.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.8366</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519011</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>海富通精选混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>16.12</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>78.19</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.7883</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005123</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.7263</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008855</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>南方内需增长两年持有期股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>14.16</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.28</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4772</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005206</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方优选成长混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4029</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3408</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>519015</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>海富通精选贰号混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>77.71</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2720</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2471</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1817</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009030</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>工银瑞信高质量成长混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.95</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1697</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001715</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>工银瑞信新焦点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1335</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007734</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方智锐混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1069</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004855</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1019</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000826</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0997</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>000827</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数E</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0997</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010687</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>工银瑞信文体产业股票C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0815</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>000867</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华宝品质生活股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>60.82</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001998</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>工银瑞信新焦点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>002823</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002824</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>